--- a/Sessao_4/dados.xlsx
+++ b/Sessao_4/dados.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B3430-588D-4CE1-A580-1082E24B50F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+  <si>
+    <t>r=0,5</t>
+  </si>
+  <si>
+    <t>r = 1</t>
+  </si>
+  <si>
+    <t>r=1,5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>φ [°]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +63,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA3D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +107,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +398,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6487</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6289</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1926</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6449</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6148</v>
+      </c>
+      <c r="H3" s="4">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>6402</v>
+      </c>
+      <c r="K3" s="5">
+        <v>6114</v>
+      </c>
+      <c r="L3" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6404</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6525</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6064</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6611</v>
+      </c>
+      <c r="H4" s="4">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5832</v>
+      </c>
+      <c r="K4" s="5">
+        <v>6683</v>
+      </c>
+      <c r="L4" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6211</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6605</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2118</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5957</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7013</v>
+      </c>
+      <c r="H5" s="4">
+        <v>110</v>
+      </c>
+      <c r="I5" s="5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5582</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7131</v>
+      </c>
+      <c r="L5" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5969</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6533</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2278</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5665</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7179</v>
+      </c>
+      <c r="H6" s="4">
+        <v>307</v>
+      </c>
+      <c r="I6" s="5">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5205</v>
+      </c>
+      <c r="K6" s="5">
+        <v>7598</v>
+      </c>
+      <c r="L6" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5976</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6941</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2590</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5456</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7728</v>
+      </c>
+      <c r="H7" s="4">
+        <v>696</v>
+      </c>
+      <c r="I7" s="5">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4924</v>
+      </c>
+      <c r="K7" s="5">
+        <v>8174</v>
+      </c>
+      <c r="L7" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5950</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7077</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2808</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5139</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7962</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1186</v>
+      </c>
+      <c r="I8" s="5">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4733</v>
+      </c>
+      <c r="K8" s="5">
+        <v>8757</v>
+      </c>
+      <c r="L8" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5711</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7185</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3264</v>
+      </c>
+      <c r="E9" s="5">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5202</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8318</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1915</v>
+      </c>
+      <c r="I9" s="5">
+        <v>60</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4582</v>
+      </c>
+      <c r="K9" s="5">
+        <v>9543</v>
+      </c>
+      <c r="L9" s="4">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5617</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7190</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3498</v>
+      </c>
+      <c r="E10" s="5">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5100</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8438</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2770</v>
+      </c>
+      <c r="I10" s="5">
+        <v>70</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4420</v>
+      </c>
+      <c r="K10" s="5">
+        <v>9910</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5527</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7454</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3785</v>
+      </c>
+      <c r="E11" s="5">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5082</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8645</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3516</v>
+      </c>
+      <c r="I11" s="5">
+        <v>80</v>
+      </c>
+      <c r="J11" s="4">
+        <v>4556</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10146</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>90</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5514</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7196</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3640</v>
+      </c>
+      <c r="E12" s="5">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4960</v>
+      </c>
+      <c r="G12" s="5">
+        <v>8619</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3554</v>
+      </c>
+      <c r="I12" s="5">
+        <v>90</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4465</v>
+      </c>
+      <c r="K12" s="5">
+        <v>10386</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>100</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5542</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7284</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3658</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4947</v>
+      </c>
+      <c r="G13" s="5">
+        <v>8696</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3211</v>
+      </c>
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4423</v>
+      </c>
+      <c r="K13" s="5">
+        <v>10128</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>110</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5706</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7245</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3372</v>
+      </c>
+      <c r="E14" s="5">
+        <v>110</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5037</v>
+      </c>
+      <c r="G14" s="5">
+        <v>8515</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2372</v>
+      </c>
+      <c r="I14" s="5">
+        <v>110</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4332</v>
+      </c>
+      <c r="K14" s="5">
+        <v>9772</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>120</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5708</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7191</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2822</v>
+      </c>
+      <c r="E15" s="5">
+        <v>120</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5129</v>
+      </c>
+      <c r="G15" s="5">
+        <v>8385</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1522</v>
+      </c>
+      <c r="I15" s="5">
+        <v>120</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4578</v>
+      </c>
+      <c r="K15" s="5">
+        <v>9391</v>
+      </c>
+      <c r="L15" s="4">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>130</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5937</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7143</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2626</v>
+      </c>
+      <c r="E16" s="5">
+        <v>130</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5054</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7880</v>
+      </c>
+      <c r="H16" s="4">
+        <v>888</v>
+      </c>
+      <c r="I16" s="5">
+        <v>130</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4672</v>
+      </c>
+      <c r="K16" s="5">
+        <v>8919</v>
+      </c>
+      <c r="L16" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>140</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5816</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6984</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2178</v>
+      </c>
+      <c r="E17" s="5">
+        <v>140</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5377</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7769</v>
+      </c>
+      <c r="H17" s="4">
+        <v>438</v>
+      </c>
+      <c r="I17" s="5">
+        <v>140</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4932</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8044</v>
+      </c>
+      <c r="L17" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>150</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6067</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6865</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1978</v>
+      </c>
+      <c r="E18" s="5">
+        <v>150</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5728</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7208</v>
+      </c>
+      <c r="H18" s="4">
+        <v>132</v>
+      </c>
+      <c r="I18" s="5">
+        <v>150</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5235</v>
+      </c>
+      <c r="K18" s="5">
+        <v>7622</v>
+      </c>
+      <c r="L18" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>160</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6064</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6512</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1616</v>
+      </c>
+      <c r="E19" s="5">
+        <v>160</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5827</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6886</v>
+      </c>
+      <c r="H19" s="4">
+        <v>58</v>
+      </c>
+      <c r="I19" s="5">
+        <v>160</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5508</v>
+      </c>
+      <c r="K19" s="5">
+        <v>6976</v>
+      </c>
+      <c r="L19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>170</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6220</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6425</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1578</v>
+      </c>
+      <c r="E20" s="5">
+        <v>170</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6093</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6501</v>
+      </c>
+      <c r="H20" s="4">
+        <v>34</v>
+      </c>
+      <c r="I20" s="5">
+        <v>170</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5799</v>
+      </c>
+      <c r="K20" s="5">
+        <v>6592</v>
+      </c>
+      <c r="L20" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>180</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6489</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6176</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1478</v>
+      </c>
+      <c r="E21" s="5">
+        <v>180</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6444</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6087</v>
+      </c>
+      <c r="H21" s="4">
+        <v>20</v>
+      </c>
+      <c r="I21" s="5">
+        <v>180</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6224</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5832</v>
+      </c>
+      <c r="L21" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>190</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6725</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6198</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1536</v>
+      </c>
+      <c r="E22" s="5">
+        <v>190</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6792</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5993</v>
+      </c>
+      <c r="H22" s="4">
+        <v>28</v>
+      </c>
+      <c r="I22" s="5">
+        <v>190</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6826</v>
+      </c>
+      <c r="K22" s="5">
+        <v>5634</v>
+      </c>
+      <c r="L22" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>200</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6874</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5995</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1578</v>
+      </c>
+      <c r="E23" s="5">
+        <v>200</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7160</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5736</v>
+      </c>
+      <c r="H23" s="4">
+        <v>32</v>
+      </c>
+      <c r="I23" s="5">
+        <v>200</v>
+      </c>
+      <c r="J23" s="4">
+        <v>7380</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5217</v>
+      </c>
+      <c r="L23" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>210</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6962</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5981</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1720</v>
+      </c>
+      <c r="E24" s="5">
+        <v>210</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7588</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5405</v>
+      </c>
+      <c r="H24" s="4">
+        <v>118</v>
+      </c>
+      <c r="I24" s="5">
+        <v>210</v>
+      </c>
+      <c r="J24" s="4">
+        <v>7951</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5080</v>
+      </c>
+      <c r="L24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>220</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7145</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5735</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1954</v>
+      </c>
+      <c r="E25" s="5">
+        <v>220</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7886</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5215</v>
+      </c>
+      <c r="H25" s="4">
+        <v>338</v>
+      </c>
+      <c r="I25" s="5">
+        <v>220</v>
+      </c>
+      <c r="J25" s="4">
+        <v>8594</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4611</v>
+      </c>
+      <c r="L25" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>230</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7343</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5642</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2364</v>
+      </c>
+      <c r="E26" s="5">
+        <v>230</v>
+      </c>
+      <c r="F26" s="4">
+        <v>8410</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5190</v>
+      </c>
+      <c r="H26" s="4">
+        <v>880</v>
+      </c>
+      <c r="I26" s="5">
+        <v>230</v>
+      </c>
+      <c r="J26" s="4">
+        <v>9351</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4589</v>
+      </c>
+      <c r="L26" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>240</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7551</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5627</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2896</v>
+      </c>
+      <c r="E27" s="5">
+        <v>240</v>
+      </c>
+      <c r="F27" s="4">
+        <v>8696</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4919</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1512</v>
+      </c>
+      <c r="I27" s="5">
+        <v>240</v>
+      </c>
+      <c r="J27" s="4">
+        <v>10006</v>
+      </c>
+      <c r="K27" s="5">
+        <v>4399</v>
+      </c>
+      <c r="L27" s="4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>250</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7601</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5582</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3210</v>
+      </c>
+      <c r="E28" s="5">
+        <v>250</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8947</v>
+      </c>
+      <c r="G28" s="5">
+        <v>4790</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2242</v>
+      </c>
+      <c r="I28" s="5">
+        <v>250</v>
+      </c>
+      <c r="J28" s="4">
+        <v>10681</v>
+      </c>
+      <c r="K28" s="5">
+        <v>4336</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>260</v>
+      </c>
+      <c r="B29" s="5">
+        <v>7687</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5571</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3754</v>
+      </c>
+      <c r="E29" s="5">
+        <v>260</v>
+      </c>
+      <c r="F29" s="4">
+        <v>9141</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4778</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3138</v>
+      </c>
+      <c r="I29" s="5">
+        <v>260</v>
+      </c>
+      <c r="J29" s="4">
+        <v>10889</v>
+      </c>
+      <c r="K29" s="5">
+        <v>4344</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>270</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7927</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5400</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3948</v>
+      </c>
+      <c r="E30" s="5">
+        <v>270</v>
+      </c>
+      <c r="F30" s="4">
+        <v>9231</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4839</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3755</v>
+      </c>
+      <c r="I30" s="5">
+        <v>270</v>
+      </c>
+      <c r="J30" s="4">
+        <v>11107</v>
+      </c>
+      <c r="K30" s="5">
+        <v>4319</v>
+      </c>
+      <c r="L30" s="4">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>280</v>
+      </c>
+      <c r="B31" s="5">
+        <v>7827</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5449</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3864</v>
+      </c>
+      <c r="E31" s="5">
+        <v>280</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9286</v>
+      </c>
+      <c r="G31" s="5">
+        <v>4944</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3598</v>
+      </c>
+      <c r="I31" s="5">
+        <v>280</v>
+      </c>
+      <c r="J31" s="4">
+        <v>10767</v>
+      </c>
+      <c r="K31" s="5">
+        <v>4257</v>
+      </c>
+      <c r="L31" s="4">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>290</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7739</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5391</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3682</v>
+      </c>
+      <c r="E32" s="5">
+        <v>290</v>
+      </c>
+      <c r="F32" s="4">
+        <v>8946</v>
+      </c>
+      <c r="G32" s="5">
+        <v>4657</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2739</v>
+      </c>
+      <c r="I32" s="5">
+        <v>290</v>
+      </c>
+      <c r="J32" s="4">
+        <v>10552</v>
+      </c>
+      <c r="K32" s="5">
+        <v>4367</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>300</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7518</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5552</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3344</v>
+      </c>
+      <c r="E33" s="5">
+        <v>300</v>
+      </c>
+      <c r="F33" s="4">
+        <v>8657</v>
+      </c>
+      <c r="G33" s="5">
+        <v>4938</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2132</v>
+      </c>
+      <c r="I33" s="5">
+        <v>300</v>
+      </c>
+      <c r="J33" s="4">
+        <v>9986</v>
+      </c>
+      <c r="K33" s="5">
+        <v>4383</v>
+      </c>
+      <c r="L33" s="4">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>310</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7520</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5502</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2916</v>
+      </c>
+      <c r="E34" s="5">
+        <v>310</v>
+      </c>
+      <c r="F34" s="4">
+        <v>8620</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5006</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1265</v>
+      </c>
+      <c r="I34" s="5">
+        <v>310</v>
+      </c>
+      <c r="J34" s="4">
+        <v>9145</v>
+      </c>
+      <c r="K34" s="5">
+        <v>4531</v>
+      </c>
+      <c r="L34" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>320</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7261</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5688</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2714</v>
+      </c>
+      <c r="E35" s="5">
+        <v>320</v>
+      </c>
+      <c r="F35" s="4">
+        <v>8039</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5320</v>
+      </c>
+      <c r="H35" s="4">
+        <v>682</v>
+      </c>
+      <c r="I35" s="5">
+        <v>320</v>
+      </c>
+      <c r="J35" s="4">
+        <v>8757</v>
+      </c>
+      <c r="K35" s="5">
+        <v>4753</v>
+      </c>
+      <c r="L35" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>330</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7114</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5909</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2278</v>
+      </c>
+      <c r="E36" s="5">
+        <v>330</v>
+      </c>
+      <c r="F36" s="4">
+        <v>7633</v>
+      </c>
+      <c r="G36" s="5">
+        <v>5339</v>
+      </c>
+      <c r="H36" s="4">
+        <v>330</v>
+      </c>
+      <c r="I36" s="5">
+        <v>330</v>
+      </c>
+      <c r="J36" s="4">
+        <v>8059</v>
+      </c>
+      <c r="K36" s="5">
+        <v>5179</v>
+      </c>
+      <c r="L36" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>340</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7071</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5909</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2156</v>
+      </c>
+      <c r="E37" s="5">
+        <v>340</v>
+      </c>
+      <c r="F37" s="4">
+        <v>7260</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5522</v>
+      </c>
+      <c r="H37" s="4">
+        <v>152</v>
+      </c>
+      <c r="I37" s="5">
+        <v>340</v>
+      </c>
+      <c r="J37" s="4">
+        <v>7437</v>
+      </c>
+      <c r="K37" s="5">
+        <v>5264</v>
+      </c>
+      <c r="L37" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>350</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6975</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5981</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2032</v>
+      </c>
+      <c r="E38" s="5">
+        <v>350</v>
+      </c>
+      <c r="F38" s="4">
+        <v>6798</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5884</v>
+      </c>
+      <c r="H38" s="4">
+        <v>74</v>
+      </c>
+      <c r="I38" s="5">
+        <v>350</v>
+      </c>
+      <c r="J38" s="4">
+        <v>6838</v>
+      </c>
+      <c r="K38" s="5">
+        <v>5610</v>
+      </c>
+      <c r="L38" s="4">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>